--- a/biology/Botanique/Ménisperme/Ménisperme.xlsx
+++ b/biology/Botanique/Ménisperme/Ménisperme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9nisperme</t>
+          <t>Ménisperme</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Menispermum
 Le Ménisperme (Menispermum) est un petit genre de vignes ligneuses grimpantes à feuilles caduques de la famille des Menispermaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9nisperme</t>
+          <t>Ménisperme</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (21 février 2022)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (21 février 2022):
 Menispermum canadense L.
 Menispermum carinianum Mill.
 Menispermum dauricum DC.
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9nisperme</t>
+          <t>Ménisperme</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Toutes les parties de ces plantes sont connues pour être toxiques, contenant de la dauricidine et des alcaloïdes isoquinoléiques apparentés, et des enfants sont morts en mangeant les fruits. La dauricine inhibe les canaux K+ cardiaques provoquant ainsi une arythmie. D'autres symptômes causés par la consommation de fruits ressemblant à du raisin comprennent l'excitation du SNC, entraînant des convulsions et un arrêt neuromusculaire. Les premiers soins en cas d'empoisonnement au Menispermum consistent à provoquer des vomissements, suivis de l'administration de charbon médicinal et de sulfate de sodium. Thérapie clinique : lavage gastrique (éventuellement avec 0,1% de permanganate de potassium) instillation de charbon médicinal et de sulfate de sodium ; substitution électrolytique, contrôle de l'acidose avec du bicarbonate de sodium (pH de l'urine 7,5). En cas de spasmes, administration intraveineuse de diazépam. Fourniture d'intubation et de respiration à l'oxygène en cas d'arrêt respiratoire ou de paralysie. Vérification de la diurèse et de la fonction rénale.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>M%C3%A9nisperme</t>
+          <t>Ménisperme</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,8 +597,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Médicaux
-Menispermum dauricum a été utilisé pour traiter les troubles cutanés, les rhumatismes et le cancer du col utérin.
+          <t>Médicaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Menispermum dauricum a été utilisé pour traiter les troubles cutanés, les rhumatismes et le cancer du col utérin.
 Menispermum canadense a été utilisé en phytothérapie comme tonique, laxatif, aide dermatologique, aide vénérienne et diurétique. Yellow Medicine County dans le Minnesota est nommé d'après l'un des noms communs de cette plante.
 Les plantes de cette espèce sont parfois cultivées comme plantes ornementales dans les jardins. Les jardiniers peuvent propager cette plante à partir de la division des coureurs ou par graines.
 </t>
